--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.136349973620125E-11</v>
+        <v>5.591750551184209E-10</v>
       </c>
       <c r="E2">
-        <v>3.136349973620125E-11</v>
+        <v>5.591750551184209E-10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5.462936451379425E-07</v>
+        <v>8.541227467174458E-05</v>
       </c>
       <c r="E3">
-        <v>5.462936451379425E-07</v>
+        <v>8.541227467174458E-05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.613612016330895E-22</v>
+        <v>1.524909306636194E-09</v>
       </c>
       <c r="E4">
-        <v>1.613612016330895E-22</v>
+        <v>1.524909306636194E-09</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6.413336545314271E-26</v>
+        <v>3.144034209128708E-12</v>
       </c>
       <c r="E5">
-        <v>6.413336545314271E-26</v>
+        <v>3.144034209128708E-12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.363264361751398E-09</v>
+        <v>1.987192923288383E-08</v>
       </c>
       <c r="E6">
-        <v>3.363264361751398E-09</v>
+        <v>1.987192923288383E-08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9838462164305987</v>
+        <v>0.9996084498033058</v>
       </c>
       <c r="E7">
-        <v>0.01615378356940134</v>
+        <v>0.0003915501966942347</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999993368786434</v>
+        <v>0.9999996805554284</v>
       </c>
       <c r="E8">
-        <v>6.631213566032912E-07</v>
+        <v>3.194445715726246E-07</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9658257497949563</v>
+        <v>0.9832416654020297</v>
       </c>
       <c r="E9">
-        <v>0.03417425020504372</v>
+        <v>0.01675833459797027</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999999999764684</v>
+        <v>0.9999999999806397</v>
       </c>
       <c r="E10">
-        <v>2.353162109614004E-11</v>
+        <v>1.93602911480184E-11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.8643944856920742</v>
+        <v>0.002366774993449494</v>
       </c>
       <c r="E11">
-        <v>0.1356055143079258</v>
+        <v>0.9976332250065505</v>
       </c>
       <c r="F11">
-        <v>0.0196785070002079</v>
+        <v>0.6063607335090637</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
